--- a/CP068/Default.xlsx
+++ b/CP068/Default.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t/>
   </si>
@@ -33,9 +33,6 @@
     <t>e_NumDocumento</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>e_Periodo</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>s_Inicio_Ejecucion</t>
   </si>
   <si>
-    <t>rdiazc</t>
-  </si>
-  <si>
     <t>Timer</t>
   </si>
   <si>
@@ -69,6 +63,9 @@
     <t>s_Nro_Orden</t>
   </si>
   <si>
+    <t>ST_Wipro</t>
+  </si>
+  <si>
     <t>e_TipoSIM</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>e_TipoDocumento</t>
   </si>
   <si>
-    <t>IPHONE 6S 32GB GRIS C/FAM WATCH AZUL</t>
-  </si>
-  <si>
     <t>e_Permanencia</t>
   </si>
   <si>
@@ -189,7 +183,7 @@
     <t>e_TipoDePlan</t>
   </si>
   <si>
-    <t>Plan Movistar Especial ilim S/ 149.90 :</t>
+    <t>Prepago con Tarifa única</t>
   </si>
   <si>
     <t>e_NroPorta</t>
@@ -220,6 +214,9 @@
   </si>
   <si>
     <t>e_MotivoAlta</t>
+  </si>
+  <si>
+    <t>HUAWEI Y8S NEGRO JKM-LX3</t>
   </si>
   <si>
     <t>En Tienda</t>
@@ -440,20 +437,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -760,21 +757,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="11" customWidth="1"/>
     <col min="4" max="16384" width="9.1484375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>20</v>
-      </c>
-      <c t="s">
-        <v>9</v>
-      </c>
-      <c t="s">
-        <v>38</v>
+        <v>19</v>
+      </c>
+      <c t="s">
+        <v>8</v>
+      </c>
+      <c t="s">
+        <v>36</v>
       </c>
     </row>
     <row>
@@ -784,7 +781,7 @@
       <c s="1" t="s">
         <v>0</v>
       </c>
-      <c s="8" t="s">
+      <c s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -803,7 +800,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
@@ -818,25 +815,25 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>39</v>
-      </c>
-      <c t="s">
-        <v>13</v>
-      </c>
-      <c t="s">
-        <v>21</v>
-      </c>
-      <c t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c t="s">
+        <v>11</v>
+      </c>
+      <c t="s">
+        <v>20</v>
+      </c>
+      <c t="s">
+        <v>49</v>
       </c>
       <c t="s">
         <v>1</v>
       </c>
       <c t="s">
-        <v>42</v>
-      </c>
-      <c t="s">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c t="s">
+        <v>9</v>
       </c>
     </row>
     <row>
@@ -844,13 +841,13 @@
         <v>0</v>
       </c>
       <c s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="2" t="s">
         <v>0</v>
@@ -890,18 +887,18 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c t="s">
         <v>2</v>
       </c>
       <c t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1">
       <c s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c s="2">
         <v>72198761</v>
@@ -933,7 +930,7 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row>
@@ -955,168 +952,168 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.0390625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.171875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.71484375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.18359375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.72265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.3828125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.79296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.41796875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="13.859375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.55078125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.03125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7421875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7421875" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.53515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.21484375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="12.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.10546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.1484375" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="9.41796875" style="7" customWidth="1"/>
-    <col min="26" max="16384" width="9.078125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="14.046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.0390625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.171875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.71484375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.0546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.3828125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.79296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.41796875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="13.859375" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.55078125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.03125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7421875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7421875" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.53515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.21484375" style="11" customWidth="1"/>
+    <col min="20" max="20" width="12.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.10546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.1484375" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="9.41796875" style="11" customWidth="1"/>
+    <col min="26" max="16384" width="9.078125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
+        <v>62</v>
+      </c>
+      <c t="s">
+        <v>26</v>
+      </c>
+      <c t="s">
+        <v>63</v>
+      </c>
+      <c t="s">
+        <v>24</v>
+      </c>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c t="s">
+        <v>41</v>
+      </c>
+      <c t="s">
+        <v>52</v>
+      </c>
+      <c t="s">
+        <v>14</v>
+      </c>
+      <c t="s">
+        <v>39</v>
+      </c>
+      <c t="s">
+        <v>56</v>
+      </c>
+      <c t="s">
+        <v>45</v>
+      </c>
+      <c t="s">
+        <v>22</v>
+      </c>
+      <c t="s">
+        <v>3</v>
+      </c>
+      <c t="s">
+        <v>15</v>
+      </c>
+      <c t="s">
+        <v>16</v>
+      </c>
+      <c t="s">
+        <v>60</v>
+      </c>
+      <c t="s">
+        <v>27</v>
+      </c>
+      <c t="s">
+        <v>10</v>
+      </c>
+      <c t="s">
+        <v>28</v>
+      </c>
+      <c t="s">
+        <v>12</v>
+      </c>
+      <c t="s">
+        <v>47</v>
+      </c>
+      <c t="s">
+        <v>1</v>
+      </c>
+      <c t="s">
+        <v>4</v>
+      </c>
+      <c t="s">
+        <v>48</v>
+      </c>
+      <c t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>50</v>
+      </c>
+      <c s="1" t="s">
+        <v>59</v>
+      </c>
+      <c s="1" t="s">
+        <v>30</v>
+      </c>
+      <c s="6" t="s">
+        <v>25</v>
+      </c>
+      <c s="6" t="s">
+        <v>25</v>
+      </c>
+      <c s="6" t="s">
         <v>64</v>
       </c>
-      <c t="s">
-        <v>28</v>
-      </c>
-      <c t="s">
-        <v>65</v>
-      </c>
-      <c t="s">
-        <v>26</v>
-      </c>
-      <c t="s">
+      <c s="1" t="s">
         <v>53</v>
       </c>
-      <c t="s">
-        <v>43</v>
-      </c>
-      <c t="s">
-        <v>54</v>
-      </c>
-      <c t="s">
-        <v>15</v>
-      </c>
-      <c t="s">
-        <v>41</v>
-      </c>
-      <c t="s">
-        <v>58</v>
-      </c>
-      <c t="s">
-        <v>47</v>
-      </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
-        <v>4</v>
-      </c>
-      <c t="s">
-        <v>16</v>
-      </c>
-      <c t="s">
-        <v>17</v>
-      </c>
-      <c t="s">
-        <v>62</v>
-      </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
-        <v>12</v>
-      </c>
-      <c t="s">
-        <v>30</v>
-      </c>
-      <c t="s">
-        <v>14</v>
-      </c>
-      <c t="s">
-        <v>49</v>
-      </c>
-      <c t="s">
-        <v>1</v>
-      </c>
-      <c t="s">
-        <v>5</v>
-      </c>
-      <c t="s">
-        <v>50</v>
-      </c>
-      <c t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row ht="25.5">
       <c s="1" t="s">
-        <v>52</v>
-      </c>
-      <c s="1" t="s">
-        <v>61</v>
-      </c>
-      <c s="1" t="s">
-        <v>32</v>
-      </c>
-      <c s="6" t="s">
-        <v>27</v>
-      </c>
-      <c s="6" t="s">
-        <v>27</v>
-      </c>
-      <c s="6" t="s">
-        <v>23</v>
-      </c>
-      <c s="1" t="s">
-        <v>55</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c s="1"/>
       <c s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c s="1">
         <v>12</v>
       </c>
       <c s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c s="1"/>
       <c s="1" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c s="1" t="s">
+        <v>17</v>
       </c>
       <c s="1" t="s">
         <v>18</v>
       </c>
       <c s="1" t="s">
-        <v>19</v>
-      </c>
-      <c s="1" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c s="9" t="s">
+        <v>66</v>
       </c>
       <c s="9" t="s">
         <v>67</v>
-      </c>
-      <c s="9" t="s">
-        <v>68</v>
       </c>
       <c s="1"/>
       <c s="1"/>
@@ -1125,7 +1122,7 @@
       <c s="1" t="s">
         <v>0</v>
       </c>
-      <c s="8" t="s">
+      <c s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1139,7 +1136,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1155,42 +1152,42 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>70</v>
-      </c>
-      <c t="s">
-        <v>31</v>
-      </c>
-      <c t="s">
-        <v>25</v>
-      </c>
-      <c t="s">
-        <v>35</v>
-      </c>
-      <c t="s">
-        <v>48</v>
-      </c>
-      <c t="s">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c t="s">
+        <v>29</v>
+      </c>
+      <c t="s">
+        <v>23</v>
+      </c>
+      <c t="s">
+        <v>33</v>
+      </c>
+      <c t="s">
+        <v>46</v>
+      </c>
+      <c t="s">
+        <v>57</v>
       </c>
     </row>
     <row>
       <c s="2" t="s">
+        <v>32</v>
+      </c>
+      <c s="2" t="s">
+        <v>61</v>
+      </c>
+      <c s="2" t="s">
+        <v>43</v>
+      </c>
+      <c s="2">
+        <v>920954652</v>
+      </c>
+      <c s="2" t="s">
+        <v>5</v>
+      </c>
+      <c s="5" t="s">
         <v>34</v>
-      </c>
-      <c s="2" t="s">
-        <v>63</v>
-      </c>
-      <c s="2" t="s">
-        <v>45</v>
-      </c>
-      <c s="2">
-        <v>920953802</v>
-      </c>
-      <c s="2" t="s">
-        <v>6</v>
-      </c>
-      <c s="5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1222,50 +1219,50 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="11.6875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.078125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="11.6875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.078125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
       <c t="s">
-        <v>21</v>
-      </c>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c t="s">
-        <v>56</v>
-      </c>
-      <c t="s">
-        <v>8</v>
-      </c>
-      <c t="s">
-        <v>57</v>
+        <v>20</v>
+      </c>
+      <c t="s">
+        <v>49</v>
+      </c>
+      <c t="s">
+        <v>54</v>
+      </c>
+      <c t="s">
+        <v>7</v>
+      </c>
+      <c t="s">
+        <v>55</v>
       </c>
     </row>
     <row>
       <c s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c s="3">
-        <v>920953802</v>
+        <v>920954652</v>
       </c>
       <c s="3">
         <v>30</v>
       </c>
-      <c s="11">
+      <c s="8">
         <v>30</v>
       </c>
     </row>
@@ -1279,50 +1276,50 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="11.6875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.078125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="11.6875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.078125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
       <c t="s">
-        <v>21</v>
-      </c>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c t="s">
-        <v>56</v>
-      </c>
-      <c t="s">
-        <v>8</v>
-      </c>
-      <c t="s">
-        <v>57</v>
+        <v>20</v>
+      </c>
+      <c t="s">
+        <v>49</v>
+      </c>
+      <c t="s">
+        <v>54</v>
+      </c>
+      <c t="s">
+        <v>7</v>
+      </c>
+      <c t="s">
+        <v>55</v>
       </c>
     </row>
     <row>
       <c s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c s="3">
-        <v>920953802</v>
+        <v>920954652</v>
       </c>
       <c s="3">
         <v>30</v>
       </c>
-      <c s="11">
+      <c s="8">
         <v>30</v>
       </c>
     </row>
